--- a/2 Architecture/Major Component BOM.xlsx
+++ b/2 Architecture/Major Component BOM.xlsx
@@ -15,12 +15,12 @@
     <sheet name="Major Components " sheetId="1" r:id="rId1"/>
     <sheet name="Component Comparision" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511" calcOnSave="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="78">
   <si>
     <t>Project</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Lead Time</t>
   </si>
   <si>
-    <t>Douglas Bahr</t>
-  </si>
-  <si>
     <t>Attiny85</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
     <t>5.5v</t>
   </si>
   <si>
-    <t>Rev_3</t>
-  </si>
-  <si>
     <t>1W</t>
   </si>
   <si>
@@ -188,21 +182,6 @@
   </si>
   <si>
     <t>LED</t>
-  </si>
-  <si>
-    <t>Cree Inc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C512A-WNN-CZ0B0151-ND </t>
-  </si>
-  <si>
-    <t>digikey</t>
-  </si>
-  <si>
-    <t>3.2V</t>
-  </si>
-  <si>
-    <t>.064W</t>
   </si>
   <si>
     <t>Slide Switch</t>
@@ -242,10 +221,40 @@
     <t>0.325 W x 1 at 8 Ohms</t>
   </si>
   <si>
-    <t>C512A-WNNCZ0B0151</t>
-  </si>
-  <si>
     <t>926-LM386MX-1/NOPB</t>
+  </si>
+  <si>
+    <t>Zacher Tiburzi</t>
+  </si>
+  <si>
+    <t>Rev_4</t>
+  </si>
+  <si>
+    <t>2.2V</t>
+  </si>
+  <si>
+    <t>.044W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">604-WP7113GD </t>
+  </si>
+  <si>
+    <t>Kingbright</t>
+  </si>
+  <si>
+    <t>WP7113GD</t>
+  </si>
+  <si>
+    <t>.5W</t>
+  </si>
+  <si>
+    <t>CLS0231MA-1-L152</t>
+  </si>
+  <si>
+    <t>.25A</t>
+  </si>
+  <si>
+    <t>2V</t>
   </si>
 </sst>
 </file>
@@ -315,12 +324,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF004B85"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -328,6 +331,11 @@
     <font>
       <u/>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -386,14 +394,9 @@
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1">
@@ -403,22 +406,41 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -766,447 +788,465 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" customWidth="1"/>
     <col min="9" max="9" width="13.7109375" customWidth="1"/>
-    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
+    <col min="11" max="11" width="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14">
+        <v>42882</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="13">
+        <v>100</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2.88</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-    </row>
-    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="C9" s="13"/>
+      <c r="D9" s="18">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0.26</v>
+      </c>
+      <c r="I9" s="13">
+        <v>5</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="K9" s="17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="13">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I10" s="13">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="J10" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0.19</v>
+      </c>
+      <c r="I11" s="13">
+        <v>1</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="17" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>42657</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-    </row>
-    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B12" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="13">
+        <v>2.35</v>
+      </c>
+      <c r="I12" s="13">
+        <v>1</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0.51</v>
+      </c>
+      <c r="I13" s="13">
+        <v>1</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.85</v>
+      </c>
+      <c r="I14" s="13">
+        <v>4</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="13">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1</v>
+      </c>
+      <c r="J15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="2">
-        <v>100</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="2">
-        <v>2.88</v>
-      </c>
-      <c r="I8" s="2">
-        <v>1</v>
-      </c>
-      <c r="J8" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="K8" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0.26</v>
-      </c>
-      <c r="I9" s="2">
-        <v>5</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" s="2">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="I10" s="2">
-        <v>1</v>
-      </c>
-      <c r="J10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0.22</v>
-      </c>
-      <c r="I11" s="2">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11" s="18" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" s="2">
-        <v>2.35</v>
-      </c>
-      <c r="I12" s="2">
-        <v>1</v>
-      </c>
-      <c r="J12" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="K12" s="18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0.51</v>
-      </c>
-      <c r="I13" s="2">
-        <v>1</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="I14" s="2">
-        <v>4</v>
-      </c>
-      <c r="J14" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="K14" s="20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="5" t="s">
+      <c r="K15" s="20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="13"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H15">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G24" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="H24" s="21">
+      <c r="H24" s="11">
         <f xml:space="preserve"> H8*I8 + H9*I9 + H10*I10 + H11*I11 + H12*I12 +H13*I13+H14*I14+H15*I15+H16*I16+H17*I17+H18*I18+H19*I19+H20*I20+H21*I21+H22*I22</f>
-        <v>19.62</v>
+        <v>19.59</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="28" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="12"/>
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="7"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G30" s="5"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1222,183 +1262,254 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="6" max="6" width="14.85546875" customWidth="1"/>
-    <col min="7" max="8" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="8"/>
+    <col min="2" max="2" width="15.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="14.42578125" style="8"/>
+    <col min="6" max="6" width="14.85546875" style="8" customWidth="1"/>
+    <col min="7" max="7" width="27.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4" style="8" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="14.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2" t="s">
+      <c r="B1" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="B2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="B3" s="14">
+        <v>42882</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
     </row>
     <row r="4" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="B4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
     </row>
     <row r="7" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="K7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="L7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>14</v>
       </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="13">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/2 Architecture/Major Component BOM.xlsx
+++ b/2 Architecture/Major Component BOM.xlsx
@@ -1025,7 +1025,7 @@
   <dimension ref="A1:BB54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
